--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1283.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1283.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8362811350325959</v>
+        <v>1.13210666179657</v>
       </c>
       <c r="B1">
-        <v>1.52520299918645</v>
+        <v>2.218048810958862</v>
       </c>
       <c r="C1">
-        <v>5.247572451835068</v>
+        <v>10.76741027832031</v>
       </c>
       <c r="D1">
-        <v>3.709365985068633</v>
+        <v>2.275628328323364</v>
       </c>
       <c r="E1">
-        <v>1.506731056339233</v>
+        <v>1.283723115921021</v>
       </c>
     </row>
   </sheetData>
